--- a/Supplement Table 1.xlsx
+++ b/Supplement Table 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/himanshujoshi/The University of Sydney (Staff)/Human splicing - Documents/Minimum Intron/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_D9CAD8B022CD83B5EBFB8CBD7E5C3B698FC51FC3" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{1FEB9E73-1D20-9A4A-A381-EB0956858743}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_D9CAD8B022CD83B5EBFB8CBD7E5C3B698FC51FC3" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4F9034D0-3AD3-F84A-8072-7DE6D62766BF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3766,7 +3766,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, rendering donor-branchpoint distance &lt;= 50 nt</t>
+      <t>, rendering donor-branchpoint distance ≤ 50 nt</t>
     </r>
   </si>
 </sst>
@@ -4754,7 +4754,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -21680,6 +21680,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D16F8DD6F708E84A855267F750C0C2F8" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7c9436005b257d1f31919b31ef66082f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="78af0815-00ef-4590-85ff-bc2fb465c5ca" xmlns:ns3="3ce7d942-d1dd-4866-a21f-d0642901d78c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="054217daa333f87eb753e11e6ade5840" ns2:_="" ns3:_="">
     <xsd:import namespace="78af0815-00ef-4590-85ff-bc2fb465c5ca"/>
@@ -21876,33 +21885,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DCCC627-67A2-469C-B6F9-D57017387BC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3ce7d942-d1dd-4866-a21f-d0642901d78c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="78af0815-00ef-4590-85ff-bc2fb465c5ca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3ce7d942-d1dd-4866-a21f-d0642901d78c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8782B5D9-4CA7-4DD1-B2B3-A32BC8773B67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87249AA2-477E-4B6F-A671-93C337736EF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21919,12 +21927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8782B5D9-4CA7-4DD1-B2B3-A32BC8773B67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>